--- a/SRC/HMITags.xlsx
+++ b/SRC/HMITags.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="R6ceddce4a82b4fc6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="R1144a3ce750d48e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="Rc103b8872eea4bdc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="R5d6107ae0a41449e"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -89,7 +89,7 @@
     <x:t>Variable_Bildnummer</x:t>
   </x:si>
   <x:si>
-    <x:t>Standard-Variablentabelle</x:t>
+    <x:t>Default tag table</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;No Value&gt;</x:t>
@@ -125,13 +125,13 @@
     <x:t>Index</x:t>
   </x:si>
   <x:si>
-    <x:t>Global-DB_Vorlauftemperatur</x:t>
+    <x:t>Main_DB_Vorlauftemperatur</x:t>
   </x:si>
   <x:si>
     <x:t>HMI_Verbindung_1</x:t>
   </x:si>
   <x:si>
-    <x:t>"Global-DB".Vorlauftemperatur</x:t>
+    <x:t>Main_DB.Vorlauftemperatur</x:t>
   </x:si>
   <x:si>
     <x:t>Real</x:t>
@@ -146,16 +146,16 @@
     <x:t>Continuous</x:t>
   </x:si>
   <x:si>
-    <x:t>Global-DB_Ruecklauftemperatur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Global-DB".Ruecklauftemperatur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Global-DB_Auto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Global-DB".Auto</x:t>
+    <x:t>Main_DB_Ruecklauftemperatur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.Ruecklauftemperatur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AutoMode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AutoMode</x:t>
   </x:si>
   <x:si>
     <x:t>Bool</x:t>
@@ -164,6 +164,9 @@
     <x:t>Pumpe 1</x:t>
   </x:si>
   <x:si>
+    <x:t>Q</x:t>
+  </x:si>
+  <x:si>
     <x:t>"Pumpe 1"</x:t>
   </x:si>
   <x:si>
@@ -230,6 +233,9 @@
     <x:t>Steuerspannung Ein</x:t>
   </x:si>
   <x:si>
+    <x:t>I</x:t>
+  </x:si>
+  <x:si>
     <x:t>"Steuerspannung Ein"</x:t>
   </x:si>
   <x:si>
@@ -239,36 +245,36 @@
     <x:t>"Sicherung Ausgänge OK"</x:t>
   </x:si>
   <x:si>
+    <x:t>Ventilator 1 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ventilator 1 Störung"</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ventilator 1 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>"Ventilator 1 Betrieb"</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 1 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 1 Störung"</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ventilator 1 Reparaturschalter ein</x:t>
   </x:si>
   <x:si>
     <x:t>"Ventilator 1 Reparaturschalter ein"</x:t>
   </x:si>
   <x:si>
+    <x:t>Ventilator 2 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ventilator 2 Störung"</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ventilator 2 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>"Ventilator 2 Betrieb"</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 2 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 2 Störung"</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ventilator 2 Reparaturschalter ein</x:t>
   </x:si>
   <x:si>
@@ -308,7 +314,7 @@
     <x:t>Betrieb Pumpe 3</x:t>
   </x:si>
   <x:si>
-    <x:t>"Betrieb Pumpe 3"</x:t>
+    <x:t>"RESERVE(1)"</x:t>
   </x:si>
   <x:si>
     <x:t>Rundumleuchte Störung</x:t>
@@ -338,6 +344,9 @@
     <x:t>Vorlauftemperatur</x:t>
   </x:si>
   <x:si>
+    <x:t>IW</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ruecklauftemperatur</x:t>
   </x:si>
   <x:si>
@@ -368,6 +377,9 @@
     <x:t>Hebeanlage 1 Durchflußmenge</x:t>
   </x:si>
   <x:si>
+    <x:t>QW</x:t>
+  </x:si>
+  <x:si>
     <x:t>"Hebeanlage 1 Durchflußmenge"</x:t>
   </x:si>
   <x:si>
@@ -392,6 +404,9 @@
     <x:t>Vorlauftemperatur(1)</x:t>
   </x:si>
   <x:si>
+    <x:t>Scaled</x:t>
+  </x:si>
+  <x:si>
     <x:t>True</x:t>
   </x:si>
   <x:si>
@@ -431,7 +446,7 @@
     <x:t>Betrieb Pumpe 4</x:t>
   </x:si>
   <x:si>
-    <x:t>"Betrieb Pumpe 4"</x:t>
+    <x:t>RESERVE</x:t>
   </x:si>
   <x:si>
     <x:t>Motorschutzschalter Hebeanlage 1</x:t>
@@ -449,13 +464,13 @@
     <x:t>Reserve DI 1</x:t>
   </x:si>
   <x:si>
-    <x:t>"Reserve DI 1"</x:t>
+    <x:t>"Reserve DI 1 ???"</x:t>
   </x:si>
   <x:si>
     <x:t>Reserve DI 2</x:t>
   </x:si>
   <x:si>
-    <x:t>"Reserve DI 2"</x:t>
+    <x:t>"Reserve DI 2 ???"</x:t>
   </x:si>
   <x:si>
     <x:t>Reserve DI 3</x:t>
@@ -713,6 +728,9 @@
     <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_s_CV</x:t>
   </x:si>
   <x:si>
+    <x:t>RuntimeMeters</x:t>
+  </x:si>
+  <x:si>
     <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].s_CV</x:t>
   </x:si>
   <x:si>
@@ -891,6 +909,12 @@
   </x:si>
   <x:si>
     <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].i_CLK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_Auto_Hebeanlage_Pumpe_H1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.Auto.Hebeanlage.Pumpe_H1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1334,13 +1358,13 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>49</x:v>
@@ -1408,16 +1432,16 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>49</x:v>
@@ -1485,16 +1509,16 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>49</x:v>
@@ -1562,16 +1586,16 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>49</x:v>
@@ -1639,16 +1663,16 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>49</x:v>
@@ -1716,16 +1740,16 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>49</x:v>
@@ -1793,7 +1817,7 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
@@ -1802,10 +1826,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>2</x:v>
@@ -1841,16 +1865,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="Q12" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="S12" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="S12" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="T12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U12" s="0" t="s">
         <x:v>31</x:v>
@@ -1870,7 +1894,7 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
@@ -1879,10 +1903,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>2</x:v>
@@ -1918,16 +1942,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="S13" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U13" s="0" t="s">
         <x:v>31</x:v>
@@ -1947,7 +1971,7 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>26</x:v>
@@ -1956,7 +1980,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
         <x:v>41</x:v>
@@ -1995,16 +2019,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="Q14" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R14" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="S14" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="T14" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U14" s="0" t="s">
         <x:v>31</x:v>
@@ -2024,16 +2048,16 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
         <x:v>49</x:v>
@@ -2101,16 +2125,16 @@
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
         <x:v>49</x:v>
@@ -2178,16 +2202,16 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>49</x:v>
@@ -2255,16 +2279,16 @@
     </x:row>
     <x:row r="18">
       <x:c r="A18" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
         <x:v>49</x:v>
@@ -2332,16 +2356,16 @@
     </x:row>
     <x:row r="19">
       <x:c r="A19" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>49</x:v>
@@ -2409,16 +2433,16 @@
     </x:row>
     <x:row r="20">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
         <x:v>49</x:v>
@@ -2486,16 +2510,16 @@
     </x:row>
     <x:row r="21">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>49</x:v>
@@ -2563,16 +2587,16 @@
     </x:row>
     <x:row r="22">
       <x:c r="A22" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>49</x:v>
@@ -2640,16 +2664,16 @@
     </x:row>
     <x:row r="23">
       <x:c r="A23" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>49</x:v>
@@ -2717,16 +2741,16 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>49</x:v>
@@ -2794,16 +2818,16 @@
     </x:row>
     <x:row r="25">
       <x:c r="A25" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>49</x:v>
@@ -2871,16 +2895,16 @@
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>49</x:v>
@@ -2948,16 +2972,16 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>49</x:v>
@@ -3025,16 +3049,16 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>49</x:v>
@@ -3102,16 +3126,16 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>49</x:v>
@@ -3179,16 +3203,16 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>49</x:v>
@@ -3256,16 +3280,16 @@
     </x:row>
     <x:row r="31">
       <x:c r="A31" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>49</x:v>
@@ -3333,16 +3357,16 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>49</x:v>
@@ -3410,19 +3434,19 @@
     </x:row>
     <x:row r="33">
       <x:c r="A33" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
         <x:v>2</x:v>
@@ -3487,19 +3511,19 @@
     </x:row>
     <x:row r="34">
       <x:c r="A34" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
         <x:v>2</x:v>
@@ -3564,19 +3588,19 @@
     </x:row>
     <x:row r="35">
       <x:c r="A35" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>2</x:v>
@@ -3641,19 +3665,19 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>2</x:v>
@@ -3718,19 +3742,19 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
         <x:v>2</x:v>
@@ -3795,19 +3819,19 @@
     </x:row>
     <x:row r="38">
       <x:c r="A38" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
         <x:v>2</x:v>
@@ -3872,19 +3896,19 @@
     </x:row>
     <x:row r="39">
       <x:c r="A39" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>2</x:v>
@@ -3949,19 +3973,19 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
         <x:v>2</x:v>
@@ -4026,19 +4050,19 @@
     </x:row>
     <x:row r="41">
       <x:c r="A41" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
         <x:v>2</x:v>
@@ -4103,19 +4127,19 @@
     </x:row>
     <x:row r="42">
       <x:c r="A42" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>2</x:v>
@@ -4180,19 +4204,19 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>2</x:v>
@@ -4240,7 +4264,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U43" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V43" s="0" t="n">
         <x:v>27648</x:v>
@@ -4257,19 +4281,19 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
         <x:v>2</x:v>
@@ -4317,7 +4341,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V44" s="0" t="n">
         <x:v>27648</x:v>
@@ -4334,19 +4358,19 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
         <x:v>2</x:v>
@@ -4394,7 +4418,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U45" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V45" s="0" t="n">
         <x:v>27648</x:v>
@@ -4411,19 +4435,19 @@
     </x:row>
     <x:row r="46">
       <x:c r="A46" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>2</x:v>
@@ -4471,7 +4495,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U46" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
         <x:v>27648</x:v>
@@ -4488,19 +4512,19 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
         <x:v>2</x:v>
@@ -4548,7 +4572,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U47" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V47" s="0" t="n">
         <x:v>27648</x:v>
@@ -4565,19 +4589,19 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
         <x:v>2</x:v>
@@ -4625,7 +4649,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U48" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V48" s="0" t="n">
         <x:v>27648</x:v>
@@ -4642,19 +4666,19 @@
     </x:row>
     <x:row r="49">
       <x:c r="A49" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
         <x:v>2</x:v>
@@ -4702,7 +4726,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V49" s="0" t="n">
         <x:v>27648</x:v>
@@ -4719,19 +4743,19 @@
     </x:row>
     <x:row r="50">
       <x:c r="A50" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
         <x:v>2</x:v>
@@ -4779,7 +4803,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U50" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V50" s="0" t="n">
         <x:v>27648</x:v>
@@ -4796,19 +4820,19 @@
     </x:row>
     <x:row r="51">
       <x:c r="A51" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
         <x:v>2</x:v>
@@ -4856,7 +4880,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U51" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V51" s="0" t="n">
         <x:v>27648</x:v>
@@ -4873,19 +4897,19 @@
     </x:row>
     <x:row r="52">
       <x:c r="A52" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
         <x:v>2</x:v>
@@ -4933,7 +4957,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="V52" s="0" t="n">
         <x:v>27648</x:v>
@@ -4950,16 +4974,16 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>49</x:v>
@@ -5027,16 +5051,16 @@
     </x:row>
     <x:row r="54">
       <x:c r="A54" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>49</x:v>
@@ -5104,16 +5128,16 @@
     </x:row>
     <x:row r="55">
       <x:c r="A55" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>49</x:v>
@@ -5181,16 +5205,16 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>49</x:v>
@@ -5258,16 +5282,16 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>49</x:v>
@@ -5335,16 +5359,16 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>49</x:v>
@@ -5412,16 +5436,16 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>49</x:v>
@@ -5489,16 +5513,16 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>49</x:v>
@@ -5566,16 +5590,16 @@
     </x:row>
     <x:row r="61">
       <x:c r="A61" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>49</x:v>
@@ -5643,16 +5667,16 @@
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>49</x:v>
@@ -5720,16 +5744,16 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>49</x:v>
@@ -5797,16 +5821,16 @@
     </x:row>
     <x:row r="64">
       <x:c r="A64" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>49</x:v>
@@ -5874,16 +5898,16 @@
     </x:row>
     <x:row r="65">
       <x:c r="A65" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>49</x:v>
@@ -5951,16 +5975,16 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>49</x:v>
@@ -6028,16 +6052,16 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>49</x:v>
@@ -6105,16 +6129,16 @@
     </x:row>
     <x:row r="68">
       <x:c r="A68" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>49</x:v>
@@ -6182,16 +6206,16 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>49</x:v>
@@ -6259,16 +6283,16 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>49</x:v>
@@ -6336,16 +6360,16 @@
     </x:row>
     <x:row r="71">
       <x:c r="A71" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>49</x:v>
@@ -6413,16 +6437,16 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>49</x:v>
@@ -6490,16 +6514,16 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>49</x:v>
@@ -6567,16 +6591,16 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>49</x:v>
@@ -6644,16 +6668,16 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>49</x:v>
@@ -6721,16 +6745,16 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>49</x:v>
@@ -6798,16 +6822,16 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>49</x:v>
@@ -6875,16 +6899,16 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>49</x:v>
@@ -6952,16 +6976,16 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>49</x:v>
@@ -7029,16 +7053,16 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>49</x:v>
@@ -7106,16 +7130,16 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>49</x:v>
@@ -7183,16 +7207,16 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>49</x:v>
@@ -7260,16 +7284,16 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>49</x:v>
@@ -7337,16 +7361,16 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>49</x:v>
@@ -7414,16 +7438,16 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>49</x:v>
@@ -7491,16 +7515,16 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>49</x:v>
@@ -7568,16 +7592,16 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>49</x:v>
@@ -7645,16 +7669,16 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>49</x:v>
@@ -7722,16 +7746,16 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>49</x:v>
@@ -7799,16 +7823,16 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>49</x:v>
@@ -7876,16 +7900,16 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>49</x:v>
@@ -7953,16 +7977,16 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>49</x:v>
@@ -8030,16 +8054,16 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>49</x:v>
@@ -8107,16 +8131,16 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>49</x:v>
@@ -8184,16 +8208,16 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>49</x:v>
@@ -8261,16 +8285,16 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>49</x:v>
@@ -8338,16 +8362,16 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>49</x:v>
@@ -8415,16 +8439,16 @@
     </x:row>
     <x:row r="98">
       <x:c r="A98" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>49</x:v>
@@ -8492,16 +8516,16 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>49</x:v>
@@ -8569,16 +8593,16 @@
     </x:row>
     <x:row r="100">
       <x:c r="A100" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>49</x:v>
@@ -8646,19 +8670,19 @@
     </x:row>
     <x:row r="101">
       <x:c r="A101" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
         <x:v>4</x:v>
@@ -8723,19 +8747,19 @@
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
         <x:v>4</x:v>
@@ -8800,19 +8824,19 @@
     </x:row>
     <x:row r="103">
       <x:c r="A103" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
         <x:v>4</x:v>
@@ -8877,19 +8901,19 @@
     </x:row>
     <x:row r="104">
       <x:c r="A104" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E104" s="0" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="E104" s="0" t="s">
-        <x:v>235</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
         <x:v>4</x:v>
@@ -8954,19 +8978,19 @@
     </x:row>
     <x:row r="105">
       <x:c r="A105" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
         <x:v>4</x:v>
@@ -9031,19 +9055,19 @@
     </x:row>
     <x:row r="106">
       <x:c r="A106" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
         <x:v>4</x:v>
@@ -9108,19 +9132,19 @@
     </x:row>
     <x:row r="107">
       <x:c r="A107" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
         <x:v>4</x:v>
@@ -9185,19 +9209,19 @@
     </x:row>
     <x:row r="108">
       <x:c r="A108" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
         <x:v>4</x:v>
@@ -9262,19 +9286,19 @@
     </x:row>
     <x:row r="109">
       <x:c r="A109" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
         <x:v>4</x:v>
@@ -9339,19 +9363,19 @@
     </x:row>
     <x:row r="110">
       <x:c r="A110" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
         <x:v>4</x:v>
@@ -9416,16 +9440,16 @@
     </x:row>
     <x:row r="111">
       <x:c r="A111" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>49</x:v>
@@ -9493,16 +9517,16 @@
     </x:row>
     <x:row r="112">
       <x:c r="A112" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>49</x:v>
@@ -9570,16 +9594,16 @@
     </x:row>
     <x:row r="113">
       <x:c r="A113" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>49</x:v>
@@ -9647,16 +9671,16 @@
     </x:row>
     <x:row r="114">
       <x:c r="A114" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>49</x:v>
@@ -9724,16 +9748,16 @@
     </x:row>
     <x:row r="115">
       <x:c r="A115" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>49</x:v>
@@ -9801,16 +9825,16 @@
     </x:row>
     <x:row r="116">
       <x:c r="A116" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>49</x:v>
@@ -9878,16 +9902,16 @@
     </x:row>
     <x:row r="117">
       <x:c r="A117" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>49</x:v>
@@ -9955,16 +9979,16 @@
     </x:row>
     <x:row r="118">
       <x:c r="A118" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>49</x:v>
@@ -10032,16 +10056,16 @@
     </x:row>
     <x:row r="119">
       <x:c r="A119" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>49</x:v>
@@ -10109,16 +10133,16 @@
     </x:row>
     <x:row r="120">
       <x:c r="A120" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>49</x:v>
@@ -10186,16 +10210,16 @@
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>49</x:v>
@@ -10263,16 +10287,16 @@
     </x:row>
     <x:row r="122">
       <x:c r="A122" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>49</x:v>
@@ -10340,16 +10364,16 @@
     </x:row>
     <x:row r="123">
       <x:c r="A123" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>49</x:v>
@@ -10417,16 +10441,16 @@
     </x:row>
     <x:row r="124">
       <x:c r="A124" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>49</x:v>
@@ -10494,16 +10518,16 @@
     </x:row>
     <x:row r="125">
       <x:c r="A125" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>49</x:v>
@@ -10571,16 +10595,16 @@
     </x:row>
     <x:row r="126">
       <x:c r="A126" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>49</x:v>
@@ -10648,16 +10672,16 @@
     </x:row>
     <x:row r="127">
       <x:c r="A127" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>49</x:v>
@@ -10725,16 +10749,16 @@
     </x:row>
     <x:row r="128">
       <x:c r="A128" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>49</x:v>
@@ -10802,16 +10826,16 @@
     </x:row>
     <x:row r="129">
       <x:c r="A129" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>49</x:v>
@@ -10879,16 +10903,16 @@
     </x:row>
     <x:row r="130">
       <x:c r="A130" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>49</x:v>
@@ -10951,6 +10975,83 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="Y130" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C131" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D131" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="E131" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F131" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G131" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H131" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J131" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M131" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O131" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P131" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q131" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S131" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T131" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U131" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V131" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W131" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X131" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y131" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/SRC/HMITags.xlsx
+++ b/SRC/HMITags.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="Rc103b8872eea4bdc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="R5d6107ae0a41449e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="R012334a679ba4e5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="Re452c53711664bcb"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -125,13 +125,13 @@
     <x:t>Index</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_Vorlauftemperatur</x:t>
+    <x:t>Main_DB_FlowTemperaturePlant</x:t>
   </x:si>
   <x:si>
     <x:t>HMI_Verbindung_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB.Vorlauftemperatur</x:t>
+    <x:t>Main_DB.FlowTemperaturePlant</x:t>
   </x:si>
   <x:si>
     <x:t>Real</x:t>
@@ -146,64 +146,64 @@
     <x:t>Continuous</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_Ruecklauftemperatur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.Ruecklauftemperatur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AutoMode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AutoMode</x:t>
+    <x:t>Main_DB_FlowTemperatureFurnace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.FlowTemperatureFurnace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_sAutoMode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.sAutoMode</x:t>
   </x:si>
   <x:si>
     <x:t>Bool</x:t>
   </x:si>
   <x:si>
-    <x:t>Pumpe 1</x:t>
+    <x:t>Werkspumpe 1</x:t>
   </x:si>
   <x:si>
     <x:t>Q</x:t>
   </x:si>
   <x:si>
-    <x:t>"Pumpe 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpe 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Pumpe 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpe 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Pumpe 3"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpe 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Pumpe 4"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_Hand_static_Vent1SollP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.Hand.static_Vent1SollP</x:t>
+    <x:t>"Werkspumpe 1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Werkspumpe 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Ventilator"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Ventilator"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_Hand_sCt1FanSetPointPerc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.Hand.sCt1FanSetPointPerc</x:t>
   </x:si>
   <x:si>
     <x:t>Int</x:t>
@@ -218,16 +218,16 @@
     <x:t>0</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_Hand_static_Vent2SollP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.Hand.static_Vent2SollP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_Auto_s_Max</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.Auto.s_Max</x:t>
+    <x:t>Main_DB_Hand_sCt2FanSetPointPerc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.Hand.sCt2FanSetPointPerc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_Auto_sSetPointMax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.Auto.sSetPointMax</x:t>
   </x:si>
   <x:si>
     <x:t>Steuerspannung Ein</x:t>
@@ -245,76 +245,76 @@
     <x:t>"Sicherung Ausgänge OK"</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 1 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 1 Störung"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 1 Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 1 Betrieb"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 1 Reparaturschalter ein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 1 Reparaturschalter ein"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 2 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 2 Störung"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 2 Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 2 Betrieb"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 2 Reparaturschalter ein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Ventilator 2 Reparaturschalter ein"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Störung Pumpe 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Störung Pumpe 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Betrieb Pumpe 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Betrieb Pumpe 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Störung Pumpe 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Störung Pumpe 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Betrieb Pumpe 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Betrieb Pumpe 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motorschutzschalter Pumpe 3 OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Motorschutzschalter Pumpe 3 OK"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Betrieb Pumpe 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"RESERVE(1)"</x:t>
+    <x:t>KT 1 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Ventilator Störung"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Ventilator Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Ventilator RS"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Ventilator Störung"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Ventilator Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Ventilator RS"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 1 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Werkspumpe 1 Störung"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 1 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Werkspumpe 1 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Werkspumpe 2 Störung"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Werkspumpe 2 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI1.4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI1.5"</x:t>
   </x:si>
   <x:si>
     <x:t>Rundumleuchte Störung</x:t>
@@ -323,85 +323,91 @@
     <x:t>"Rundumleuchte Störung"</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZU-Klappen 1 öffnen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"ZU-Klappen 1 öffnen"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZU-Klappen 2 öffnen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"ZU-Klappen 2 öffnen"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vorlauftemperatur</x:t>
+    <x:t>Reserve DQ0.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ0.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Sprührohr öffnen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Sprührohr öffnen"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr öffnen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Sprührohr öffnen"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Werk</x:t>
   </x:si>
   <x:si>
     <x:t>IW</x:t>
   </x:si>
   <x:si>
-    <x:t>Ruecklauftemperatur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 Differenzdruck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 1 Differenzdruck"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Differenzdruck</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 2 Differenzdruck"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve IW 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve IW 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve IW 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve IW 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 Durchflußmenge</x:t>
+    <x:t>"Vorlauftemperatur Werk"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Ofen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Vorlauftemperatur Ofen"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 1 Differenzdruck"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 2 Differenzdruck"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve IW132"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve IW134"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe Durchflußmenge</x:t>
   </x:si>
   <x:si>
     <x:t>QW</x:t>
   </x:si>
   <x:si>
-    <x:t>"Hebeanlage 1 Durchflußmenge"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sollwert Ventilator 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Sollwert Ventilator 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sollwert Ventilator 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Sollwert Ventilator 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Durchflußmenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 2 Durchflußmenge"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vorlauftemperatur(1)</x:t>
+    <x:t>"HA 1 Klappe Durchflußmenge"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Ventilator Sollwert"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Ventilator Sollwert"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe Durchflußmenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 2 Klappe Durchflußmenge"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Werk(1)</x:t>
   </x:si>
   <x:si>
     <x:t>Scaled</x:t>
@@ -410,511 +416,745 @@
     <x:t>True</x:t>
   </x:si>
   <x:si>
-    <x:t>Ruecklauftemperatur(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 Differenzdruck(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Differenzdruck(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve IW 1(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve IW 2(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 Durchflußmenge(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sollwert Ventilator 1(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sollwert Ventilator 2(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Durchflußmenge(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motorschutzschalter Pumpe 4 OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Motorschutzschalter Pumpe 4 OK"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Betrieb Pumpe 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RESERVE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Motorschutzschalter Hebeanlage 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Motorschutzschalter Hebeanlage 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 1 ???"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 2 ???"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 3"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 4"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZU-Klappen 1 geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"ZU-Klappen 1 geöffnet"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZU-Klappen 2 geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"ZU-Klappen 2 geöffnet"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 Klappe geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 1 Klappe geöffnet"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Klappe geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 2 Klappe geöffnet"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Behälter Hebeanlage Trockenlaufschutz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Behälter Hebeanlage Trockenlaufschutz"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Behälter Hebeanlage Pumpe ein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Behälter Hebeanlage Pumpe ein"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Behälter Hebeanlage Pumpe aus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Behälter Hebeanlage Pumpe aus"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Behälter Hebeanlage Überlauf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Behälter Hebeanlage Überlauf"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 1 öffnen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 1 öffnen"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 öffnen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Hebeanlage 2 öffnen"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpe Hebeanlage 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Pumpe Hebeanlage 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pumpe Hebeanlage 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Pumpe Hebeanlage 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 3"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 4"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 5"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 6"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 7"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 8"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 9"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 10"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 11"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 12"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DQ 13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DQ 13"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Absalzanlage Impuls</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Absalzanlage Impuls"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 5"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 6"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 7"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 8"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 9"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 10"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 11"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 12"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 13"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 14"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 15"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 16"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 17"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 18"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reserve DI 19"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_s_CV</x:t>
+    <x:t>Vorlauftemperatur Ofen(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Differenzdruck(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Differenzdruck(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW132(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW134(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe Durchflußmenge(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Sollwert(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Sollwert(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe Durchflußmenge(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1 MSS OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 1 MSS OK"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 2 MSS OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 2 MSS OK"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1 MSS OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 1 MSS OK"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 2 MSS OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 2 MSS OK"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 1 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 2 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Kühlwasserpumpe 2 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 1 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 2 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 2 Betrieb"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Sprührohr geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 1 Sprührohr geöffnet"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"KT 2 Sprührohr geöffnet"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 1 Klappe geöffnet"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe geschlossen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 1 Klappe geschlossen"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 2 Klappe geöffnet"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe geschlossen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 2 Klappe geschlossen"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI9.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI9.6"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI9.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI9.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe Freigabe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 1 Klappe Freigabe"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe Freigabe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"HA 2 Klappe Freigabe"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Ofenpumpe 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ8.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ8.4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ8.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ8.5"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ8.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ8.6"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ8.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ8.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB Magnetventil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"WSB Magnetventil"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.3"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.5"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.6"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DQ9.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Absalzanlage läuft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Absalzanlage läuft"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"WSB OUT1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"WSB OUT2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"WSB OUT3"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"WSB OUT4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI12.5"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI12.6"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI12.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.0"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.3"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.5"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.6"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Reserve DI13.7"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_sCv</x:t>
   </x:si>
   <x:si>
     <x:t>RuntimeMeters</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].s_CV</x:t>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].sCv</x:t>
   </x:si>
   <x:si>
     <x:t>DInt</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].s_CV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].s_CQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].i_CLK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_Auto_Hebeanlage_Pumpe_H1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB.Auto.Hebeanlage.Pumpe_H1</x:t>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].sCv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].sCq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{0}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[0].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{1}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[1].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{2}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[2].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{3}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[3].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{4}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[4].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{5}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[5].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{6}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[6].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{7}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[7].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{8}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[8].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_RuntimeMeters_SRTM{9}_iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.RuntimeMeters.SRTM[9].iClk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_HMI_StorageTankRefill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.HMI.StorageTankRefill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCvOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alarm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sCvOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFuseOutputsErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sFuseOutputsErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt1FanErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sCt1FanErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt1RepairSwitchOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sCt1RepairSwitchOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt2FanErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sCt2FanErr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt2RepairSwitchOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sCt2RepairSwitchOff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpPlant1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpPlant1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpPlant2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpPlant2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpCoolWater1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpCoolWater1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpCoolWater2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpCoolWater2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpFurnace1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpFurnace1Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpFurnace2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPumpFurnace2Err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperaturePlantHot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTemperaturePlantHot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperatureFurnaceHot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTemperatureFurnaceHot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPressureDeltaPerc1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPressureDeltaPerc1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPressureDeltaPerc2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sPressureDeltaPerc2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSurgeTankRunDry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sSurgeTankRunDry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSurgeTankOverflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sSurgeTankOverflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSprayPipeOpenTimeout1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sSprayPipeOpenTimeout1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSprayPipeOpenTimeout2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sSprayPipeOpenTimeout2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpPlant1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpPlant1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_sSurgeTankLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB.sSurgeTankLevel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpPlant2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpPlant2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpCoolWater2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpCoolWater2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpCoolWater1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpCoolWater1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpFurnace1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpFurnace1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sPumpFurnace2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sPumpFurnace2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sCt1Fan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sCt1Fan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100 ms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sCt2Fan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sCt2Fan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB_Settings_SurgeTankLevel_Overflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB.Settings.SurgeTankLevel.Overflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB_Settings_SurgeTankLevel_SetPointUpper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB.Settings.SurgeTankLevel.SetPointUpper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB_Settings_SurgeTankLevel_SetPointLower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB.Settings.SurgeTankLevel.SetPointLower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB_Settings_SurgeTankLevel_RunDry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Retain_DB.Settings.SurgeTankLevel.RunDry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sCt1SprayPipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sCt1SprayPipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sCt2SprayPipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sCt2SprayPipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sAutoMode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sAutoMode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb_sSurgeTankRefill</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HmiDb.sSurgeTankRefill</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3443,7 +3683,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>65</x:v>
@@ -3511,7 +3751,7 @@
     </x:row>
     <x:row r="34">
       <x:c r="A34" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>111</x:v>
@@ -3520,7 +3760,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>65</x:v>
@@ -3588,7 +3828,7 @@
     </x:row>
     <x:row r="35">
       <x:c r="A35" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>111</x:v>
@@ -3597,7 +3837,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>65</x:v>
@@ -3665,7 +3905,7 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>111</x:v>
@@ -3674,7 +3914,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>65</x:v>
@@ -3742,7 +3982,7 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>111</x:v>
@@ -3751,7 +3991,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>65</x:v>
@@ -3819,7 +4059,7 @@
     </x:row>
     <x:row r="38">
       <x:c r="A38" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>111</x:v>
@@ -3828,7 +4068,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>65</x:v>
@@ -3896,16 +4136,16 @@
     </x:row>
     <x:row r="39">
       <x:c r="A39" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>65</x:v>
@@ -3973,16 +4213,16 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>65</x:v>
@@ -4050,16 +4290,16 @@
     </x:row>
     <x:row r="41">
       <x:c r="A41" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>65</x:v>
@@ -4127,16 +4367,16 @@
     </x:row>
     <x:row r="42">
       <x:c r="A42" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>65</x:v>
@@ -4204,16 +4444,16 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>65</x:v>
@@ -4264,7 +4504,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U43" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V43" s="0" t="n">
         <x:v>27648</x:v>
@@ -4281,16 +4521,16 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
         <x:v>65</x:v>
@@ -4341,7 +4581,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V44" s="0" t="n">
         <x:v>27648</x:v>
@@ -4358,16 +4598,16 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>65</x:v>
@@ -4418,7 +4658,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U45" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V45" s="0" t="n">
         <x:v>27648</x:v>
@@ -4435,16 +4675,16 @@
     </x:row>
     <x:row r="46">
       <x:c r="A46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>65</x:v>
@@ -4495,7 +4735,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U46" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
         <x:v>27648</x:v>
@@ -4512,16 +4752,16 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>65</x:v>
@@ -4572,7 +4812,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U47" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V47" s="0" t="n">
         <x:v>27648</x:v>
@@ -4589,16 +4829,16 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>65</x:v>
@@ -4649,7 +4889,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U48" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V48" s="0" t="n">
         <x:v>27648</x:v>
@@ -4666,16 +4906,16 @@
     </x:row>
     <x:row r="49">
       <x:c r="A49" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>65</x:v>
@@ -4726,7 +4966,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U49" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V49" s="0" t="n">
         <x:v>27648</x:v>
@@ -4743,16 +4983,16 @@
     </x:row>
     <x:row r="50">
       <x:c r="A50" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
         <x:v>65</x:v>
@@ -4803,7 +5043,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U50" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V50" s="0" t="n">
         <x:v>27648</x:v>
@@ -4820,16 +5060,16 @@
     </x:row>
     <x:row r="51">
       <x:c r="A51" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
         <x:v>65</x:v>
@@ -4880,7 +5120,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U51" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V51" s="0" t="n">
         <x:v>27648</x:v>
@@ -4897,16 +5137,16 @@
     </x:row>
     <x:row r="52">
       <x:c r="A52" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="C52" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
         <x:v>65</x:v>
@@ -4957,7 +5197,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="U52" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="V52" s="0" t="n">
         <x:v>27648</x:v>
@@ -4974,7 +5214,7 @@
     </x:row>
     <x:row r="53">
       <x:c r="A53" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>74</x:v>
@@ -4983,7 +5223,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
         <x:v>49</x:v>
@@ -5051,7 +5291,7 @@
     </x:row>
     <x:row r="54">
       <x:c r="A54" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>74</x:v>
@@ -5060,7 +5300,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
         <x:v>49</x:v>
@@ -5128,7 +5368,7 @@
     </x:row>
     <x:row r="55">
       <x:c r="A55" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>74</x:v>
@@ -5137,7 +5377,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
         <x:v>49</x:v>
@@ -5205,7 +5445,7 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>74</x:v>
@@ -5214,7 +5454,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
         <x:v>49</x:v>
@@ -5282,7 +5522,7 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>74</x:v>
@@ -5291,7 +5531,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
         <x:v>49</x:v>
@@ -5359,7 +5599,7 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>74</x:v>
@@ -5368,7 +5608,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>49</x:v>
@@ -5436,7 +5676,7 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>74</x:v>
@@ -5445,7 +5685,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>49</x:v>
@@ -5478,7 +5718,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="O59" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="P59" s="0" t="s">
         <x:v>33</x:v>
@@ -5513,7 +5753,7 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>74</x:v>
@@ -5522,7 +5762,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>49</x:v>
@@ -5590,7 +5830,7 @@
     </x:row>
     <x:row r="61">
       <x:c r="A61" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>74</x:v>
@@ -5599,7 +5839,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>49</x:v>
@@ -5667,7 +5907,7 @@
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>74</x:v>
@@ -5676,7 +5916,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>49</x:v>
@@ -5744,7 +5984,7 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>74</x:v>
@@ -5753,7 +5993,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>49</x:v>
@@ -5821,7 +6061,7 @@
     </x:row>
     <x:row r="64">
       <x:c r="A64" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>74</x:v>
@@ -5830,7 +6070,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>49</x:v>
@@ -5898,7 +6138,7 @@
     </x:row>
     <x:row r="65">
       <x:c r="A65" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>74</x:v>
@@ -5907,7 +6147,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>49</x:v>
@@ -5975,7 +6215,7 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>74</x:v>
@@ -5984,7 +6224,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>49</x:v>
@@ -6052,7 +6292,7 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>74</x:v>
@@ -6061,7 +6301,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>49</x:v>
@@ -6129,7 +6369,7 @@
     </x:row>
     <x:row r="68">
       <x:c r="A68" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>74</x:v>
@@ -6138,7 +6378,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>49</x:v>
@@ -6206,7 +6446,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>51</x:v>
@@ -6215,7 +6455,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>49</x:v>
@@ -6283,7 +6523,7 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>51</x:v>
@@ -6292,7 +6532,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>49</x:v>
@@ -6360,7 +6600,7 @@
     </x:row>
     <x:row r="71">
       <x:c r="A71" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>51</x:v>
@@ -6369,7 +6609,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>49</x:v>
@@ -6437,7 +6677,7 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>51</x:v>
@@ -6446,7 +6686,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>49</x:v>
@@ -6514,7 +6754,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>51</x:v>
@@ -6523,7 +6763,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>49</x:v>
@@ -6591,7 +6831,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>51</x:v>
@@ -6600,7 +6840,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>49</x:v>
@@ -6668,7 +6908,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>51</x:v>
@@ -6677,7 +6917,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>49</x:v>
@@ -6745,7 +6985,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>51</x:v>
@@ -6754,7 +6994,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>49</x:v>
@@ -6822,7 +7062,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>51</x:v>
@@ -6831,7 +7071,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>49</x:v>
@@ -6899,7 +7139,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>51</x:v>
@@ -6908,7 +7148,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>49</x:v>
@@ -6976,7 +7216,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>51</x:v>
@@ -6985,7 +7225,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>49</x:v>
@@ -7053,7 +7293,7 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>51</x:v>
@@ -7062,7 +7302,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>49</x:v>
@@ -7130,7 +7370,7 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>51</x:v>
@@ -7139,7 +7379,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>49</x:v>
@@ -7207,7 +7447,7 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>51</x:v>
@@ -7216,7 +7456,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>49</x:v>
@@ -7284,7 +7524,7 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>51</x:v>
@@ -7293,7 +7533,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>49</x:v>
@@ -7361,7 +7601,7 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>51</x:v>
@@ -7370,7 +7610,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>49</x:v>
@@ -7438,7 +7678,7 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>74</x:v>
@@ -7447,7 +7687,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>49</x:v>
@@ -7515,7 +7755,7 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>74</x:v>
@@ -7524,7 +7764,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>49</x:v>
@@ -7592,7 +7832,7 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>74</x:v>
@@ -7601,7 +7841,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>49</x:v>
@@ -7669,7 +7909,7 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>74</x:v>
@@ -7678,7 +7918,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>49</x:v>
@@ -7746,7 +7986,7 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>74</x:v>
@@ -7755,7 +7995,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>49</x:v>
@@ -7823,7 +8063,7 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>74</x:v>
@@ -7832,7 +8072,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>49</x:v>
@@ -7900,7 +8140,7 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>74</x:v>
@@ -7909,7 +8149,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>49</x:v>
@@ -7977,7 +8217,7 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
         <x:v>74</x:v>
@@ -7986,7 +8226,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>49</x:v>
@@ -8054,7 +8294,7 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
         <x:v>74</x:v>
@@ -8063,7 +8303,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>49</x:v>
@@ -8131,7 +8371,7 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
         <x:v>74</x:v>
@@ -8140,7 +8380,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>49</x:v>
@@ -8208,7 +8448,7 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
         <x:v>74</x:v>
@@ -8217,7 +8457,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>49</x:v>
@@ -8285,7 +8525,7 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>74</x:v>
@@ -8294,7 +8534,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>49</x:v>
@@ -8362,7 +8602,7 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>74</x:v>
@@ -8371,7 +8611,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>49</x:v>
@@ -8439,7 +8679,7 @@
     </x:row>
     <x:row r="98">
       <x:c r="A98" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>74</x:v>
@@ -8448,7 +8688,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
         <x:v>49</x:v>
@@ -8516,7 +8756,7 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>74</x:v>
@@ -8525,7 +8765,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
         <x:v>49</x:v>
@@ -8593,7 +8833,7 @@
     </x:row>
     <x:row r="100">
       <x:c r="A100" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>74</x:v>
@@ -8602,7 +8842,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
         <x:v>49</x:v>
@@ -8670,19 +8910,19 @@
     </x:row>
     <x:row r="101">
       <x:c r="A101" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
         <x:v>4</x:v>
@@ -8747,19 +8987,19 @@
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
         <x:v>243</x:v>
-      </x:c>
-      <x:c r="E102" s="0" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
         <x:v>4</x:v>
@@ -8824,19 +9064,19 @@
     </x:row>
     <x:row r="103">
       <x:c r="A103" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E103" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
         <x:v>4</x:v>
@@ -8901,19 +9141,19 @@
     </x:row>
     <x:row r="104">
       <x:c r="A104" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E104" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
         <x:v>4</x:v>
@@ -8978,19 +9218,19 @@
     </x:row>
     <x:row r="105">
       <x:c r="A105" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E105" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
         <x:v>4</x:v>
@@ -9055,19 +9295,19 @@
     </x:row>
     <x:row r="106">
       <x:c r="A106" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
         <x:v>4</x:v>
@@ -9132,19 +9372,19 @@
     </x:row>
     <x:row r="107">
       <x:c r="A107" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
         <x:v>4</x:v>
@@ -9209,19 +9449,19 @@
     </x:row>
     <x:row r="108">
       <x:c r="A108" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E108" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
         <x:v>4</x:v>
@@ -9286,19 +9526,19 @@
     </x:row>
     <x:row r="109">
       <x:c r="A109" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E109" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
         <x:v>4</x:v>
@@ -9363,19 +9603,19 @@
     </x:row>
     <x:row r="110">
       <x:c r="A110" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E110" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
         <x:v>4</x:v>
@@ -9440,16 +9680,16 @@
     </x:row>
     <x:row r="111">
       <x:c r="A111" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E111" s="0" t="s">
         <x:v>49</x:v>
@@ -9517,16 +9757,16 @@
     </x:row>
     <x:row r="112">
       <x:c r="A112" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E112" s="0" t="s">
         <x:v>49</x:v>
@@ -9594,16 +9834,16 @@
     </x:row>
     <x:row r="113">
       <x:c r="A113" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="E113" s="0" t="s">
         <x:v>49</x:v>
@@ -9671,16 +9911,16 @@
     </x:row>
     <x:row r="114">
       <x:c r="A114" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E114" s="0" t="s">
         <x:v>49</x:v>
@@ -9748,16 +9988,16 @@
     </x:row>
     <x:row r="115">
       <x:c r="A115" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E115" s="0" t="s">
         <x:v>49</x:v>
@@ -9825,16 +10065,16 @@
     </x:row>
     <x:row r="116">
       <x:c r="A116" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E116" s="0" t="s">
         <x:v>49</x:v>
@@ -9902,16 +10142,16 @@
     </x:row>
     <x:row r="117">
       <x:c r="A117" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E117" s="0" t="s">
         <x:v>49</x:v>
@@ -9979,16 +10219,16 @@
     </x:row>
     <x:row r="118">
       <x:c r="A118" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E118" s="0" t="s">
         <x:v>49</x:v>
@@ -10056,16 +10296,16 @@
     </x:row>
     <x:row r="119">
       <x:c r="A119" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="E119" s="0" t="s">
         <x:v>49</x:v>
@@ -10133,16 +10373,16 @@
     </x:row>
     <x:row r="120">
       <x:c r="A120" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E120" s="0" t="s">
         <x:v>49</x:v>
@@ -10210,16 +10450,16 @@
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E121" s="0" t="s">
         <x:v>49</x:v>
@@ -10287,16 +10527,16 @@
     </x:row>
     <x:row r="122">
       <x:c r="A122" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E122" s="0" t="s">
         <x:v>49</x:v>
@@ -10364,16 +10604,16 @@
     </x:row>
     <x:row r="123">
       <x:c r="A123" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E123" s="0" t="s">
         <x:v>49</x:v>
@@ -10441,16 +10681,16 @@
     </x:row>
     <x:row r="124">
       <x:c r="A124" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E124" s="0" t="s">
         <x:v>49</x:v>
@@ -10518,16 +10758,16 @@
     </x:row>
     <x:row r="125">
       <x:c r="A125" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E125" s="0" t="s">
         <x:v>49</x:v>
@@ -10595,16 +10835,16 @@
     </x:row>
     <x:row r="126">
       <x:c r="A126" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="E126" s="0" t="s">
         <x:v>49</x:v>
@@ -10672,16 +10912,16 @@
     </x:row>
     <x:row r="127">
       <x:c r="A127" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E127" s="0" t="s">
         <x:v>49</x:v>
@@ -10749,16 +10989,16 @@
     </x:row>
     <x:row r="128">
       <x:c r="A128" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E128" s="0" t="s">
         <x:v>49</x:v>
@@ -10826,16 +11066,16 @@
     </x:row>
     <x:row r="129">
       <x:c r="A129" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E129" s="0" t="s">
         <x:v>49</x:v>
@@ -10903,16 +11143,16 @@
     </x:row>
     <x:row r="130">
       <x:c r="A130" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>49</x:v>
@@ -10980,7 +11220,7 @@
     </x:row>
     <x:row r="131">
       <x:c r="A131" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
         <x:v>26</x:v>
@@ -10989,7 +11229,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E131" s="0" t="s">
         <x:v>49</x:v>
@@ -11052,6 +11292,2855 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="Y131" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D132" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="E132" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J132" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O132" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P132" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q132" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S132" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T132" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U132" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V132" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X132" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y132" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D133" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="E133" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J133" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O133" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P133" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q133" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S133" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T133" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U133" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V133" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X133" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y133" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D134" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="E134" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J134" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M134" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O134" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P134" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q134" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S134" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T134" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U134" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V134" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W134" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X134" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y134" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D135" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="E135" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H135" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J135" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M135" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O135" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P135" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q135" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S135" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T135" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U135" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V135" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W135" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X135" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y135" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D136" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="E136" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J136" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M136" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O136" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P136" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q136" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S136" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T136" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U136" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V136" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W136" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X136" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y136" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C137" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D137" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="E137" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F137" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G137" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H137" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J137" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O137" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P137" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q137" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S137" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T137" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U137" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V137" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X137" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y137" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C138" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D138" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="E138" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F138" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G138" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H138" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J138" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O138" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P138" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q138" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S138" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T138" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U138" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V138" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X138" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y138" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C139" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D139" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="E139" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F139" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G139" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H139" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J139" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M139" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O139" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P139" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q139" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S139" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T139" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U139" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V139" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W139" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X139" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y139" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C140" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D140" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E140" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F140" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G140" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H140" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J140" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O140" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P140" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q140" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S140" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T140" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U140" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V140" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X140" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y140" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C141" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D141" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="E141" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F141" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G141" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H141" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J141" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M141" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O141" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P141" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q141" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S141" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T141" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U141" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V141" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W141" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X141" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y141" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C142" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D142" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E142" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F142" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G142" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H142" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J142" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M142" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O142" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P142" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q142" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S142" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T142" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U142" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V142" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W142" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X142" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y142" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C143" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D143" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="E143" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F143" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G143" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H143" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J143" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O143" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P143" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q143" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S143" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T143" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U143" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V143" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X143" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y143" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C144" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D144" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="E144" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F144" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G144" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H144" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J144" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M144" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O144" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P144" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q144" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S144" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T144" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U144" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V144" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W144" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X144" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y144" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C145" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D145" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="E145" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F145" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G145" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H145" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J145" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M145" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O145" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P145" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q145" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S145" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T145" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U145" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V145" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W145" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X145" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y145" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C146" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D146" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="E146" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F146" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G146" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H146" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J146" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O146" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P146" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q146" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S146" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T146" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U146" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V146" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X146" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y146" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C147" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D147" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E147" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F147" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G147" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H147" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J147" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M147" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O147" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P147" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q147" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S147" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T147" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U147" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V147" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W147" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X147" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y147" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C148" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D148" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="E148" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F148" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G148" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H148" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J148" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M148" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O148" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P148" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q148" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S148" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T148" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U148" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V148" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W148" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X148" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y148" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C149" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D149" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="E149" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F149" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G149" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H149" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J149" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M149" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O149" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P149" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q149" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S149" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T149" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U149" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V149" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W149" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X149" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y149" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C150" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D150" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="E150" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F150" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G150" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H150" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J150" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M150" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O150" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P150" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q150" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S150" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T150" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U150" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V150" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W150" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X150" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y150" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C151" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D151" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="E151" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F151" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G151" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H151" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J151" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M151" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O151" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="P151" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q151" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S151" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T151" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U151" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V151" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W151" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X151" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y151" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C152" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D152" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="E152" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F152" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G152" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H152" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J152" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O152" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P152" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q152" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S152" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T152" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U152" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V152" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X152" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y152" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C153" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D153" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="E153" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F153" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G153" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H153" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J153" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O153" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P153" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q153" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S153" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T153" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U153" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V153" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X153" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y153" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C154" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D154" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="E154" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F154" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G154" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H154" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J154" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O154" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P154" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q154" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S154" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T154" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U154" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V154" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X154" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y154" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C155" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D155" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="E155" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F155" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G155" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H155" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J155" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O155" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P155" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q155" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S155" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T155" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U155" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V155" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X155" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y155" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C156" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D156" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="E156" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F156" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G156" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H156" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J156" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M156" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O156" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P156" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q156" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S156" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T156" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U156" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V156" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W156" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X156" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y156" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C157" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D157" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="E157" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F157" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G157" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H157" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J157" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M157" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O157" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P157" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q157" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S157" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T157" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U157" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V157" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W157" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X157" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y157" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C158" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D158" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="E158" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F158" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G158" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H158" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J158" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M158" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O158" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P158" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q158" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S158" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T158" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U158" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V158" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W158" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X158" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y158" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C159" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D159" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="E159" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F159" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G159" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H159" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J159" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M159" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O159" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P159" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="Q159" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S159" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T159" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U159" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V159" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W159" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X159" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y159" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C160" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D160" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="E160" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F160" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G160" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H160" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J160" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O160" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P160" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="Q160" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S160" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T160" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U160" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V160" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X160" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y160" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161">
+      <x:c r="A161" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C161" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D161" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="E161" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F161" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G161" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H161" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I161" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J161" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K161" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L161" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N161" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O161" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P161" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q161" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="R161" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="S161" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="T161" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="U161" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V161" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X161" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y161" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C162" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D162" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="E162" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F162" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G162" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H162" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I162" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J162" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K162" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L162" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N162" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O162" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P162" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q162" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="R162" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="S162" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="T162" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="U162" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V162" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X162" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y162" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C163" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D163" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="E163" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F163" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G163" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H163" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I163" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J163" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K163" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L163" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N163" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O163" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P163" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q163" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="R163" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="S163" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="T163" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="U163" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V163" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X163" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y163" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C164" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D164" s="0" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="E164" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F164" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G164" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H164" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I164" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J164" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K164" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L164" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N164" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O164" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P164" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q164" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="R164" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="S164" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="T164" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="U164" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V164" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X164" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y164" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C165" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D165" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="E165" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F165" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G165" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H165" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J165" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M165" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O165" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P165" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q165" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S165" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T165" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U165" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V165" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W165" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X165" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y165" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C166" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D166" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="E166" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F166" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G166" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H166" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J166" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M166" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O166" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P166" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q166" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S166" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T166" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U166" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V166" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W166" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X166" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y166" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C167" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D167" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="E167" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F167" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G167" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H167" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J167" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M167" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O167" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P167" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q167" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S167" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T167" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U167" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V167" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W167" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X167" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y167" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C168" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D168" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="E168" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F168" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G168" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H168" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J168" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M168" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="O168" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P168" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q168" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="R168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="S168" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="T168" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="U168" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="V168" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="W168" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="X168" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="Y168" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/SRC/HMITags.xlsx
+++ b/SRC/HMITags.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="R012334a679ba4e5c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="Re452c53711664bcb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hmi Tags" sheetId="1" r:id="R10853b0161024c28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Multiplexing" sheetId="2" r:id="Rd49c3ec9d2324289"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -260,7 +260,7 @@
     <x:t>KT 1 Ventilator RS</x:t>
   </x:si>
   <x:si>
-    <x:t>"KT 1 Ventilator RS"</x:t>
+    <x:t>"KT 1 Ventilator RS ein"</x:t>
   </x:si>
   <x:si>
     <x:t>KT 2 Ventilator Störung</x:t>
@@ -278,7 +278,7 @@
     <x:t>KT 2 Ventilator RS</x:t>
   </x:si>
   <x:si>
-    <x:t>"KT 2 Ventilator RS"</x:t>
+    <x:t>"KT 2 Ventilator RS ein"</x:t>
   </x:si>
   <x:si>
     <x:t>Werkspumpe 1 Störung</x:t>
@@ -1001,13 +1001,13 @@
     <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperaturePlantHot</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTemperaturePlantHot</x:t>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTempPlantHot</x:t>
   </x:si>
   <x:si>
     <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperatureFurnaceHot</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTemperatureFurnaceHot</x:t>
+    <x:t>Main_DB.AlwaysRUN.Alarm.sFlowTempFurnaceHot</x:t>
   </x:si>
   <x:si>
     <x:t>Main_DB_AlwaysRUN_Alarm_sPressureDeltaPerc1</x:t>
@@ -1055,7 +1055,7 @@
     <x:t>Main_DB_sSurgeTankLevel</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB.sSurgeTankLevel</x:t>
+    <x:t>Main_DB.sSurgeTankLevelXXX</x:t>
   </x:si>
   <x:si>
     <x:t>HmiDb_sPumpPlant2</x:t>
